--- a/10. Document/11. Requirement/Requirement-analyze.xlsx
+++ b/10. Document/11. Requirement/Requirement-analyze.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="91">
   <si>
     <t>1. Mục đích website</t>
   </si>
@@ -286,6 +286,27 @@
   </si>
   <si>
     <t>Image2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Build web fornt-end from local to hosting free - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dealine weekend</t>
+    </r>
+  </si>
+  <si>
+    <t>Validate login ngọc rồng</t>
+  </si>
+  <si>
+    <t>=&gt; Tại phía dưới hnagj mục rank và tướng, nhờ thêm 2 hạng mục trang phục và ngọc</t>
   </si>
 </sst>
 </file>
@@ -410,7 +431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -421,10 +442,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -436,9 +466,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -448,11 +475,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -879,7 +906,7 @@
   </sheetPr>
   <dimension ref="B2:E55"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A43" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1129,7 +1156,7 @@
   <dimension ref="B2:K49"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,70 +1388,102 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:F5"/>
+  <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="175" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
-    <col min="2" max="2" width="20.5703125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="35.5703125" style="17" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="2" max="2" width="20.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>43993</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13">
+      <c r="B4" s="9">
         <v>44012</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="18" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="11" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="13">
+      <c r="B5" s="9">
         <v>44012</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="18" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="11" t="s">
         <v>86</v>
       </c>
     </row>
+    <row r="6" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="9">
+        <v>44018</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="9">
+        <v>44018</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C6:E6"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
@@ -1443,7 +1502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B44"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
